--- a/public/samplefiles/simple.xlsx
+++ b/public/samplefiles/simple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PrinIT\public\samplefiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>adress</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -48,12 +45,15 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,30 +385,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>43149</v>
